--- a/release-branch/StructureDefinition-bc-patient-by-example.xlsx
+++ b/release-branch/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-27T22:56:13+00:00</t>
+    <t>2024-10-01T20:52:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-patient-by-example.xlsx
+++ b/release-branch/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-01T20:52:52+00:00</t>
+    <t>2024-10-10T23:13:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-patient-by-example.xlsx
+++ b/release-branch/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-10T23:13:09+00:00</t>
+    <t>2024-10-11T20:59:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-patient-by-example.xlsx
+++ b/release-branch/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T20:59:30+00:00</t>
+    <t>2024-10-11T21:12:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-patient-by-example.xlsx
+++ b/release-branch/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T21:12:40+00:00</t>
+    <t>2024-10-11T22:07:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-patient-by-example.xlsx
+++ b/release-branch/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T22:07:31+00:00</t>
+    <t>2024-10-11T22:13:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-patient-by-example.xlsx
+++ b/release-branch/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T22:13:26+00:00</t>
+    <t>2024-10-15T18:43:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-patient-by-example.xlsx
+++ b/release-branch/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-15T18:43:47+00:00</t>
+    <t>2024-10-23T18:46:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-patient-by-example.xlsx
+++ b/release-branch/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T18:46:58+00:00</t>
+    <t>2024-10-24T18:05:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-patient-by-example.xlsx
+++ b/release-branch/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T18:05:53+00:00</t>
+    <t>2024-10-31T18:32:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-patient-by-example.xlsx
+++ b/release-branch/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T18:32:51+00:00</t>
+    <t>2024-12-09T22:50:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-patient-by-example.xlsx
+++ b/release-branch/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T22:50:07+00:00</t>
+    <t>2024-12-09T22:59:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-patient-by-example.xlsx
+++ b/release-branch/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T22:59:04+00:00</t>
+    <t>2024-12-09T23:04:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-patient-by-example.xlsx
+++ b/release-branch/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T23:04:44+00:00</t>
+    <t>2025-01-11T00:36:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -600,10 +600,10 @@
     <t>JHN</t>
   </si>
   <si>
-    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
-  </si>
-  <si>
-    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
+    <t>Jurisdictional Health Number</t>
+  </si>
+  <si>
+    <t>Federal patient and person health numbers used by all jurisdictions across Canada</t>
   </si>
   <si>
     <t>Patient.identifier:JHN.id</t>
@@ -4254,16 +4254,16 @@
         <v>80</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>175</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -4331,16 +4331,16 @@
         <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>80</v>

--- a/release-branch/StructureDefinition-bc-patient-by-example.xlsx
+++ b/release-branch/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-11T00:36:26+00:00</t>
+    <t>2025-01-17T23:10:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-patient-by-example.xlsx
+++ b/release-branch/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-17T23:10:16+00:00</t>
+    <t>2025-02-07T23:01:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-patient-by-example.xlsx
+++ b/release-branch/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-07T23:01:35+00:00</t>
+    <t>2025-05-12T18:40:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -907,7 +907,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ca-baseline-name:Patient.name.given  or Patient.name.family or both SHALL be present {family.exists() or given.exists()}</t>
+ipa-pat-2:Either Patient.name.given and/or Patient.name.family and/or Patient.name.text SHALL be present or a Data Absent Reason Extension SHALL be present. {(family.exists() or given.exists() or text.exists()) xor extension.where(url='http://hl7.org/fhir/StructureDefinition/data-absent-reason').exists()}</t>
   </si>
   <si>
     <t>name</t>
@@ -2418,17 +2418,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.88671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.47265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="25.25" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="35.91015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.83984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="21.6484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="86.25" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="73.9453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2437,27 +2437,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="39.97265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="76.23828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.26953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="65.359375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="156.828125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="40.8125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="107.3984375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="40.0703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="134.453125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="34.98828125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="92.07421875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="34.35546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4863,10 +4863,10 @@
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S21" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>80</v>

--- a/release-branch/StructureDefinition-bc-patient-by-example.xlsx
+++ b/release-branch/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T18:40:48+00:00</t>
+    <t>2025-05-29T22:30:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-patient-by-example.xlsx
+++ b/release-branch/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-29T22:30:32+00:00</t>
+    <t>2025-08-19T23:36:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-patient-by-example.xlsx
+++ b/release-branch/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-19T23:36:05+00:00</t>
+    <t>2025-08-27T22:30:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
